--- a/data/panelapp/uk/White matter disorders and cerebral calcification - narrow panel.xlsx
+++ b/data/panelapp/uk/White matter disorders and cerebral calcification - narrow panel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929809</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929823</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929827</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929829</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929832</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929835</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929837</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929840</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929842</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929845</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929847</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929850</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929852</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929855</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929857</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929859</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929862</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929865</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929867</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929870</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929872</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929875</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929877</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929880</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929883</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929885</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929888</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929890</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929892</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929895</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929897</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929900</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929902</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929905</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929907</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929910</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929912</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929915</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929917</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929919</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929922</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929925</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929927</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929930</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929932</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929935</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929937</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929940</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929942</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929950</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929953</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929956</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929959</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929961</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929964</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929966</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929968</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929971</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929973</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929976</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929978</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929981</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929983</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929985</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929989</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929992</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929995</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929997</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.929999</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930002</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930005</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930007</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930010</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930012</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930014</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930017</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930021</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930024</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930026</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930029</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930031</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930034</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930036</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930039</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930041</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930043</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930046</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930048</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930051</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930053</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930055</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930058</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930061</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930064</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930066</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930069</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930071</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930074</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930076</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930078</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930081</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930083</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930086</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930088</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930091</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930093</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930095</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930098</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930102</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930105</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930108</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930110</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930112</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930115</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930117</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930120</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930122</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930125</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930127</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930129</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930132</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930134</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930137</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930139</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930142</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930144</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930146</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930149</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930153</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930156</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930158</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930161</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930163</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930166</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930168</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930170</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930173</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930175</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930178</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930180</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930183</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930185</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930188</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930190</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930193</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930195</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930197</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930200</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930202</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930205</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930207</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930210</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930212</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930215</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930217</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4336,12 +5116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>GTF2E2</t>
+          <t>HIKESHI</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>general transcription factor IIE subunit 2</t>
+          <t>Hikeshi, heat shock protein nuclear import factor</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4352,6 +5132,11 @@
       <c r="E157" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930220</t>
         </is>
       </c>
     </row>
@@ -4361,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>HIKESHI</t>
+          <t>HSPD1</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Hikeshi, heat shock protein nuclear import factor</t>
+          <t>heat shock protein family D (Hsp60) member 1</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4377,6 +5162,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930222</t>
         </is>
       </c>
     </row>
@@ -4386,12 +5176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>HSPD1</t>
+          <t>ISCA1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>heat shock protein family D (Hsp60) member 1</t>
+          <t>iron-sulfur cluster assembly 1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4402,6 +5192,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930225</t>
         </is>
       </c>
     </row>
@@ -4411,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ISCA1</t>
+          <t>ISCA2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>iron-sulfur cluster assembly 1</t>
+          <t>iron-sulfur cluster assembly 2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4427,6 +5222,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930227</t>
         </is>
       </c>
     </row>
@@ -4436,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ISCA2</t>
+          <t>KIAA1161</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>iron-sulfur cluster assembly 2</t>
+          <t>myogenesis regulating glycosidase (putative)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4452,6 +5252,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930229</t>
         </is>
       </c>
     </row>
@@ -4461,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>KIAA1161</t>
+          <t>KIF5A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>myogenesis regulating glycosidase (putative)</t>
+          <t>kinesin family member 5A</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4477,6 +5282,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930232</t>
         </is>
       </c>
     </row>
@@ -4486,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>KIF5A</t>
+          <t>LIG3</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>kinesin family member 5A</t>
+          <t>DNA ligase 3</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4502,6 +5312,11 @@
       <c r="E163" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930234</t>
         </is>
       </c>
     </row>
@@ -4511,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LIG3</t>
+          <t>MRE11</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DNA ligase 3</t>
+          <t>MRE11 homolog, double strand break repair nuclease</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4527,6 +5342,11 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930237</t>
         </is>
       </c>
     </row>
@@ -4536,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MRE11</t>
+          <t>MRPS16</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>MRE11 homolog, double strand break repair nuclease</t>
+          <t>mitochondrial ribosomal protein S16</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4552,6 +5372,11 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930239</t>
         </is>
       </c>
     </row>
@@ -4561,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MRPS16</t>
+          <t>NAXD</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>mitochondrial ribosomal protein S16</t>
+          <t>NAD(P)HX dehydratase</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4577,6 +5402,11 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930241</t>
         </is>
       </c>
     </row>
@@ -4586,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NAXD</t>
+          <t>NAXE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>NAD(P)HX dehydratase</t>
+          <t>NAD(P)HX epimerase</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4602,6 +5432,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930244</t>
         </is>
       </c>
     </row>
@@ -4611,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NAXE</t>
+          <t>NFU1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NAD(P)HX epimerase</t>
+          <t>NFU1 iron-sulfur cluster scaffold</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4627,6 +5462,11 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930246</t>
         </is>
       </c>
     </row>
@@ -4636,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NFU1</t>
+          <t>NUP188</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>NFU1 iron-sulfur cluster scaffold</t>
+          <t>nucleoporin 188</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4652,6 +5492,11 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930249</t>
         </is>
       </c>
     </row>
@@ -4661,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NUP188</t>
+          <t>PEX14</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>nucleoporin 188</t>
+          <t>peroxisomal biogenesis factor 14</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4677,6 +5522,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930251</t>
         </is>
       </c>
     </row>
@@ -4686,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PEX14</t>
+          <t>PEX19</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 14</t>
+          <t>peroxisomal biogenesis factor 19</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4702,6 +5552,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930253</t>
         </is>
       </c>
     </row>
@@ -4711,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PEX19</t>
+          <t>PI4KA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>peroxisomal biogenesis factor 19</t>
+          <t>phosphatidylinositol 4-kinase alpha</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4727,6 +5582,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930256</t>
         </is>
       </c>
     </row>
@@ -4736,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PI4KA</t>
+          <t>POLR3K</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>phosphatidylinositol 4-kinase alpha</t>
+          <t>RNA polymerase III subunit K</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4752,6 +5612,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930258</t>
         </is>
       </c>
     </row>
@@ -4761,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>POLR3K</t>
+          <t>PTEN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RNA polymerase III subunit K</t>
+          <t>phosphatase and tensin homolog</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4777,6 +5642,11 @@
       <c r="E174" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930262</t>
         </is>
       </c>
     </row>
@@ -4786,12 +5656,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PTEN</t>
+          <t>RAB11B</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>phosphatase and tensin homolog</t>
+          <t>RAB11B, member RAS oncogene family</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4802,6 +5672,11 @@
       <c r="E175" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930265</t>
         </is>
       </c>
     </row>
@@ -4811,12 +5686,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RAB11B</t>
+          <t>RNU7-1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>RAB11B, member RAS oncogene family</t>
+          <t>RNA, U7 small nuclear 1</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4827,6 +5702,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930267</t>
         </is>
       </c>
     </row>
@@ -4836,12 +5716,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RNU7-1</t>
+          <t>RPIA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>RNA, U7 small nuclear 1</t>
+          <t>ribose 5-phosphate isomerase A</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4852,6 +5732,11 @@
       <c r="E177" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930270</t>
         </is>
       </c>
     </row>
@@ -4861,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RPIA</t>
+          <t>SCAF4</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ribose 5-phosphate isomerase A</t>
+          <t>SR-related CTD associated factor 4</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4877,6 +5762,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930272</t>
         </is>
       </c>
     </row>
@@ -4886,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SCAF4</t>
+          <t>SDHA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SR-related CTD associated factor 4</t>
+          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4902,6 +5792,11 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930275</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SDHA</t>
+          <t>SNORD118</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
+          <t>small nucleolar RNA, C/D box 118</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4927,6 +5822,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930277</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5836,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SNORD118</t>
+          <t>SPART</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>small nucleolar RNA, C/D box 118</t>
+          <t>spartin</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4952,6 +5852,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930280</t>
         </is>
       </c>
     </row>
@@ -4961,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SPART</t>
+          <t>SPG11</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>spartin</t>
+          <t>SPG11, spatacsin vesicle trafficking associated</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4977,6 +5882,11 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930282</t>
         </is>
       </c>
     </row>
@@ -4986,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SPG11</t>
+          <t>STN1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SPG11, spatacsin vesicle trafficking associated</t>
+          <t>STN1, CST complex subunit</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5002,6 +5912,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930284</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5926,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>STN1</t>
+          <t>TMEM106B</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>STN1, CST complex subunit</t>
+          <t>transmembrane protein 106B</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5027,6 +5942,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930287</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TMEM106B</t>
+          <t>TMEM63A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>transmembrane protein 106B</t>
+          <t>transmembrane protein 63A</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5052,6 +5972,11 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930289</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5986,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TMEM63A</t>
+          <t>TUFM</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>transmembrane protein 63A</t>
+          <t>Tu translation elongation factor, mitochondrial</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5077,6 +6002,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930292</t>
         </is>
       </c>
     </row>
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TUFM</t>
+          <t>UFM1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tu translation elongation factor, mitochondrial</t>
+          <t>ubiquitin fold modifier 1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930294</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>UFM1</t>
+          <t>VPS11</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ubiquitin fold modifier 1</t>
+          <t>VPS11, CORVET/HOPS core subunit</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930297</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>VPS11</t>
+          <t>WARS2</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>VPS11, CORVET/HOPS core subunit</t>
+          <t>tryptophanyl tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930299</t>
         </is>
       </c>
     </row>
@@ -5161,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>WARS2</t>
+          <t>ZFYVE26</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>tryptophanyl tRNA synthetase 2, mitochondrial</t>
+          <t>zinc finger FYVE-type containing 26</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5177,6 +6122,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930302</t>
         </is>
       </c>
     </row>
@@ -5186,22 +6136,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ZFYVE26</t>
+          <t>ADGRG1</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 26</t>
+          <t>adhesion G protein-coupled receptor G1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930304</t>
         </is>
       </c>
     </row>
@@ -5211,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ADGRG1</t>
+          <t>ARX</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>adhesion G protein-coupled receptor G1</t>
+          <t>aristaless related homeobox</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5227,6 +6182,11 @@
       <c r="E192" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930307</t>
         </is>
       </c>
     </row>
@@ -5236,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ARX</t>
+          <t>ATP7A</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>aristaless related homeobox</t>
+          <t>ATPase copper transporting alpha</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5252,6 +6212,11 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930309</t>
         </is>
       </c>
     </row>
@@ -5261,12 +6226,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ATP7A</t>
+          <t>CYP7B1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ATPase copper transporting alpha</t>
+          <t>cytochrome P450 family 7 subfamily B member 1</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5277,6 +6242,11 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930311</t>
         </is>
       </c>
     </row>
@@ -5286,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CYP7B1</t>
+          <t>DCX</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 7 subfamily B member 1</t>
+          <t>doublecortin</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5302,6 +6272,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930314</t>
         </is>
       </c>
     </row>
@@ -5311,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DCX</t>
+          <t>DDB1</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>doublecortin</t>
+          <t>damage specific DNA binding protein 1</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5327,6 +6302,11 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930316</t>
         </is>
       </c>
     </row>
@@ -5336,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DDB1</t>
+          <t>EGR2</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>damage specific DNA binding protein 1</t>
+          <t>early growth response 2</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5352,6 +6332,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930319</t>
         </is>
       </c>
     </row>
@@ -5361,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>EGR2</t>
+          <t>FARSA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>early growth response 2</t>
+          <t>phenylalanyl-tRNA synthetase alpha subunit</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5377,6 +6362,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930321</t>
         </is>
       </c>
     </row>
@@ -5386,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FARSA</t>
+          <t>GTF2E2</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>phenylalanyl-tRNA synthetase alpha subunit</t>
+          <t>general transcription factor IIE subunit 2</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5402,6 +6392,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930323</t>
         </is>
       </c>
     </row>
@@ -5429,6 +6424,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930326</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930329</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930331</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930334</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930336</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930339</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930341</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930344</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930346</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930349</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930351</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930353</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930356</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930358</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930361</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930363</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930365</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930368</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930370</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930373</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930376</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930378</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930381</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930383</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930386</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930388</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930391</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930393</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>White matter disorders and cerebral calcification - narrow panel</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930396</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6152,6 +7292,11 @@
       <c r="E229" t="inlineStr">
         <is>
           <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:36.930398</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/White matter disorders and cerebral calcification - narrow panel.xlsx
+++ b/data/panelapp/uk/White matter disorders and cerebral calcification - narrow panel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929809</t>
+          <t>2021-10-05 14:23:09.418852</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929823</t>
+          <t>2021-10-05 14:23:09.418860</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929827</t>
+          <t>2021-10-05 14:23:09.418863</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929829</t>
+          <t>2021-10-05 14:23:09.418866</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929832</t>
+          <t>2021-10-05 14:23:09.418869</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929835</t>
+          <t>2021-10-05 14:23:09.418871</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929837</t>
+          <t>2021-10-05 14:23:09.418874</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929840</t>
+          <t>2021-10-05 14:23:09.418876</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929842</t>
+          <t>2021-10-05 14:23:09.418879</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929845</t>
+          <t>2021-10-05 14:23:09.418882</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929847</t>
+          <t>2021-10-05 14:23:09.418885</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929850</t>
+          <t>2021-10-05 14:23:09.418887</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929852</t>
+          <t>2021-10-05 14:23:09.418889</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929855</t>
+          <t>2021-10-05 14:23:09.418892</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929857</t>
+          <t>2021-10-05 14:23:09.418894</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929859</t>
+          <t>2021-10-05 14:23:09.418897</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929862</t>
+          <t>2021-10-05 14:23:09.418900</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929865</t>
+          <t>2021-10-05 14:23:09.418902</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929867</t>
+          <t>2021-10-05 14:23:09.418905</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929870</t>
+          <t>2021-10-05 14:23:09.418908</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929872</t>
+          <t>2021-10-05 14:23:09.418910</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929875</t>
+          <t>2021-10-05 14:23:09.418912</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929877</t>
+          <t>2021-10-05 14:23:09.418915</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929880</t>
+          <t>2021-10-05 14:23:09.418918</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929883</t>
+          <t>2021-10-05 14:23:09.418921</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929885</t>
+          <t>2021-10-05 14:23:09.418923</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929888</t>
+          <t>2021-10-05 14:23:09.418926</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929890</t>
+          <t>2021-10-05 14:23:09.418928</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929892</t>
+          <t>2021-10-05 14:23:09.418931</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929895</t>
+          <t>2021-10-05 14:23:09.418933</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929897</t>
+          <t>2021-10-05 14:23:09.418936</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929900</t>
+          <t>2021-10-05 14:23:09.418938</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929902</t>
+          <t>2021-10-05 14:23:09.418941</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929905</t>
+          <t>2021-10-05 14:23:09.418944</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929907</t>
+          <t>2021-10-05 14:23:09.418946</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929910</t>
+          <t>2021-10-05 14:23:09.418949</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929912</t>
+          <t>2021-10-05 14:23:09.418951</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929915</t>
+          <t>2021-10-05 14:23:09.418954</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929917</t>
+          <t>2021-10-05 14:23:09.418956</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929919</t>
+          <t>2021-10-05 14:23:09.418959</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929922</t>
+          <t>2021-10-05 14:23:09.418962</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929925</t>
+          <t>2021-10-05 14:23:09.418964</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929927</t>
+          <t>2021-10-05 14:23:09.418967</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929930</t>
+          <t>2021-10-05 14:23:09.418969</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929932</t>
+          <t>2021-10-05 14:23:09.418972</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929935</t>
+          <t>2021-10-05 14:23:09.418975</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929937</t>
+          <t>2021-10-05 14:23:09.418977</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929940</t>
+          <t>2021-10-05 14:23:09.418980</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929942</t>
+          <t>2021-10-05 14:23:09.418982</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929950</t>
+          <t>2021-10-05 14:23:09.418985</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929953</t>
+          <t>2021-10-05 14:23:09.418987</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929956</t>
+          <t>2021-10-05 14:23:09.418990</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929959</t>
+          <t>2021-10-05 14:23:09.418993</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929961</t>
+          <t>2021-10-05 14:23:09.418996</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929964</t>
+          <t>2021-10-05 14:23:09.418998</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929966</t>
+          <t>2021-10-05 14:23:09.419001</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929968</t>
+          <t>2021-10-05 14:23:09.419003</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929971</t>
+          <t>2021-10-05 14:23:09.419006</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929973</t>
+          <t>2021-10-05 14:23:09.419008</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929976</t>
+          <t>2021-10-05 14:23:09.419011</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929978</t>
+          <t>2021-10-05 14:23:09.419013</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929981</t>
+          <t>2021-10-05 14:23:09.419016</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929983</t>
+          <t>2021-10-05 14:23:09.419018</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929985</t>
+          <t>2021-10-05 14:23:09.419021</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929989</t>
+          <t>2021-10-05 14:23:09.419024</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929992</t>
+          <t>2021-10-05 14:23:09.419027</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929995</t>
+          <t>2021-10-05 14:23:09.419030</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929997</t>
+          <t>2021-10-05 14:23:09.419032</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.929999</t>
+          <t>2021-10-05 14:23:09.419035</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930002</t>
+          <t>2021-10-05 14:23:09.419037</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930005</t>
+          <t>2021-10-05 14:23:09.419039</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930007</t>
+          <t>2021-10-05 14:23:09.419042</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930010</t>
+          <t>2021-10-05 14:23:09.419044</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930012</t>
+          <t>2021-10-05 14:23:09.419047</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930014</t>
+          <t>2021-10-05 14:23:09.419049</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930017</t>
+          <t>2021-10-05 14:23:09.419052</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930021</t>
+          <t>2021-10-05 14:23:09.419056</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930024</t>
+          <t>2021-10-05 14:23:09.419060</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930026</t>
+          <t>2021-10-05 14:23:09.419062</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930029</t>
+          <t>2021-10-05 14:23:09.419065</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930031</t>
+          <t>2021-10-05 14:23:09.419067</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930034</t>
+          <t>2021-10-05 14:23:09.419070</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930036</t>
+          <t>2021-10-05 14:23:09.419072</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930039</t>
+          <t>2021-10-05 14:23:09.419075</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930041</t>
+          <t>2021-10-05 14:23:09.419077</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930043</t>
+          <t>2021-10-05 14:23:09.419080</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930046</t>
+          <t>2021-10-05 14:23:09.419082</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930048</t>
+          <t>2021-10-05 14:23:09.419085</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930051</t>
+          <t>2021-10-05 14:23:09.419087</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930053</t>
+          <t>2021-10-05 14:23:09.419090</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930055</t>
+          <t>2021-10-05 14:23:09.419092</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930058</t>
+          <t>2021-10-05 14:23:09.419095</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930061</t>
+          <t>2021-10-05 14:23:09.419098</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930064</t>
+          <t>2021-10-05 14:23:09.419101</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930066</t>
+          <t>2021-10-05 14:23:09.419104</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930069</t>
+          <t>2021-10-05 14:23:09.419106</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930071</t>
+          <t>2021-10-05 14:23:09.419109</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930074</t>
+          <t>2021-10-05 14:23:09.419112</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930076</t>
+          <t>2021-10-05 14:23:09.419114</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930078</t>
+          <t>2021-10-05 14:23:09.419117</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930081</t>
+          <t>2021-10-05 14:23:09.419119</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930083</t>
+          <t>2021-10-05 14:23:09.419122</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930086</t>
+          <t>2021-10-05 14:23:09.419124</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930088</t>
+          <t>2021-10-05 14:23:09.419127</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930091</t>
+          <t>2021-10-05 14:23:09.419129</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930093</t>
+          <t>2021-10-05 14:23:09.419132</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930095</t>
+          <t>2021-10-05 14:23:09.419134</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930098</t>
+          <t>2021-10-05 14:23:09.419137</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930102</t>
+          <t>2021-10-05 14:23:09.419141</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930105</t>
+          <t>2021-10-05 14:23:09.419144</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930108</t>
+          <t>2021-10-05 14:23:09.419146</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930110</t>
+          <t>2021-10-05 14:23:09.419149</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930112</t>
+          <t>2021-10-05 14:23:09.419151</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930115</t>
+          <t>2021-10-05 14:23:09.419154</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930117</t>
+          <t>2021-10-05 14:23:09.419156</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930120</t>
+          <t>2021-10-05 14:23:09.419159</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930122</t>
+          <t>2021-10-05 14:23:09.419161</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930125</t>
+          <t>2021-10-05 14:23:09.419164</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930127</t>
+          <t>2021-10-05 14:23:09.419166</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930129</t>
+          <t>2021-10-05 14:23:09.419169</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930132</t>
+          <t>2021-10-05 14:23:09.419171</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930134</t>
+          <t>2021-10-05 14:23:09.419174</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930137</t>
+          <t>2021-10-05 14:23:09.419176</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930139</t>
+          <t>2021-10-05 14:23:09.419179</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930142</t>
+          <t>2021-10-05 14:23:09.419181</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930144</t>
+          <t>2021-10-05 14:23:09.419184</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930146</t>
+          <t>2021-10-05 14:23:09.419186</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930149</t>
+          <t>2021-10-05 14:23:09.419189</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930153</t>
+          <t>2021-10-05 14:23:09.419193</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930156</t>
+          <t>2021-10-05 14:23:09.419196</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930158</t>
+          <t>2021-10-05 14:23:09.419199</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930161</t>
+          <t>2021-10-05 14:23:09.419202</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930163</t>
+          <t>2021-10-05 14:23:09.419204</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930166</t>
+          <t>2021-10-05 14:23:09.419207</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930168</t>
+          <t>2021-10-05 14:23:09.419209</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930170</t>
+          <t>2021-10-05 14:23:09.419212</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930173</t>
+          <t>2021-10-05 14:23:09.419215</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930175</t>
+          <t>2021-10-05 14:23:09.419217</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930178</t>
+          <t>2021-10-05 14:23:09.419220</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930180</t>
+          <t>2021-10-05 14:23:09.419222</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930183</t>
+          <t>2021-10-05 14:23:09.419225</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930185</t>
+          <t>2021-10-05 14:23:09.419227</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930188</t>
+          <t>2021-10-05 14:23:09.419230</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930190</t>
+          <t>2021-10-05 14:23:09.419232</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930193</t>
+          <t>2021-10-05 14:23:09.419235</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930195</t>
+          <t>2021-10-05 14:23:09.419237</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930197</t>
+          <t>2021-10-05 14:23:09.419240</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930200</t>
+          <t>2021-10-05 14:23:09.419242</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930202</t>
+          <t>2021-10-05 14:23:09.419245</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930205</t>
+          <t>2021-10-05 14:23:09.419248</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930207</t>
+          <t>2021-10-05 14:23:09.419250</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930210</t>
+          <t>2021-10-05 14:23:09.419253</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930212</t>
+          <t>2021-10-05 14:23:09.419255</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930215</t>
+          <t>2021-10-05 14:23:09.419258</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930217</t>
+          <t>2021-10-05 14:23:09.419260</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930220</t>
+          <t>2021-10-05 14:23:09.419263</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930222</t>
+          <t>2021-10-05 14:23:09.419265</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930225</t>
+          <t>2021-10-05 14:23:09.419268</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930227</t>
+          <t>2021-10-05 14:23:09.419270</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930229</t>
+          <t>2021-10-05 14:23:09.419273</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930232</t>
+          <t>2021-10-05 14:23:09.419275</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930234</t>
+          <t>2021-10-05 14:23:09.419278</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930237</t>
+          <t>2021-10-05 14:23:09.419280</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930239</t>
+          <t>2021-10-05 14:23:09.419283</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930241</t>
+          <t>2021-10-05 14:23:09.419286</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930244</t>
+          <t>2021-10-05 14:23:09.419288</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930246</t>
+          <t>2021-10-05 14:23:09.419291</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930249</t>
+          <t>2021-10-05 14:23:09.419293</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930251</t>
+          <t>2021-10-05 14:23:09.419295</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930253</t>
+          <t>2021-10-05 14:23:09.419298</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930256</t>
+          <t>2021-10-05 14:23:09.419300</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930258</t>
+          <t>2021-10-05 14:23:09.419303</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930262</t>
+          <t>2021-10-05 14:23:09.419307</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930265</t>
+          <t>2021-10-05 14:23:09.419309</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930267</t>
+          <t>2021-10-05 14:23:09.419312</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930270</t>
+          <t>2021-10-05 14:23:09.419314</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930272</t>
+          <t>2021-10-05 14:23:09.419317</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930275</t>
+          <t>2021-10-05 14:23:09.419319</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930277</t>
+          <t>2021-10-05 14:23:09.419322</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930280</t>
+          <t>2021-10-05 14:23:09.419325</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930282</t>
+          <t>2021-10-05 14:23:09.419327</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930284</t>
+          <t>2021-10-05 14:23:09.419330</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930287</t>
+          <t>2021-10-05 14:23:09.419332</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930289</t>
+          <t>2021-10-05 14:23:09.419335</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930292</t>
+          <t>2021-10-05 14:23:09.419337</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930294</t>
+          <t>2021-10-05 14:23:09.419340</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930297</t>
+          <t>2021-10-05 14:23:09.419342</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930299</t>
+          <t>2021-10-05 14:23:09.419345</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930302</t>
+          <t>2021-10-05 14:23:09.419347</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930304</t>
+          <t>2021-10-05 14:23:09.419350</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930307</t>
+          <t>2021-10-05 14:23:09.419352</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930309</t>
+          <t>2021-10-05 14:23:09.419355</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930311</t>
+          <t>2021-10-05 14:23:09.419357</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930314</t>
+          <t>2021-10-05 14:23:09.419360</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930316</t>
+          <t>2021-10-05 14:23:09.419362</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930319</t>
+          <t>2021-10-05 14:23:09.419365</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930321</t>
+          <t>2021-10-05 14:23:09.419367</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930323</t>
+          <t>2021-10-05 14:23:09.419370</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930326</t>
+          <t>2021-10-05 14:23:09.419372</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930329</t>
+          <t>2021-10-05 14:23:09.419375</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930331</t>
+          <t>2021-10-05 14:23:09.419378</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930334</t>
+          <t>2021-10-05 14:23:09.419380</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930336</t>
+          <t>2021-10-05 14:23:09.419383</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930339</t>
+          <t>2021-10-05 14:23:09.419386</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930341</t>
+          <t>2021-10-05 14:23:09.419388</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930344</t>
+          <t>2021-10-05 14:23:09.419391</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930346</t>
+          <t>2021-10-05 14:23:09.419393</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930349</t>
+          <t>2021-10-05 14:23:09.419396</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930351</t>
+          <t>2021-10-05 14:23:09.419399</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930353</t>
+          <t>2021-10-05 14:23:09.419401</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930356</t>
+          <t>2021-10-05 14:23:09.419404</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930358</t>
+          <t>2021-10-05 14:23:09.419406</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930361</t>
+          <t>2021-10-05 14:23:09.419409</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930363</t>
+          <t>2021-10-05 14:23:09.419411</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930365</t>
+          <t>2021-10-05 14:23:09.419414</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930368</t>
+          <t>2021-10-05 14:23:09.419416</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930370</t>
+          <t>2021-10-05 14:23:09.419419</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930373</t>
+          <t>2021-10-05 14:23:09.419421</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930376</t>
+          <t>2021-10-05 14:23:09.419424</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930378</t>
+          <t>2021-10-05 14:23:09.419426</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930381</t>
+          <t>2021-10-05 14:23:09.419429</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930383</t>
+          <t>2021-10-05 14:23:09.419432</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930386</t>
+          <t>2021-10-05 14:23:09.419434</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930388</t>
+          <t>2021-10-05 14:23:09.419437</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930391</t>
+          <t>2021-10-05 14:23:09.419439</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930393</t>
+          <t>2021-10-05 14:23:09.419442</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930396</t>
+          <t>2021-10-05 14:23:09.419444</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,91 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:36.930398</t>
+          <t>2021-10-05 14:23:09.419447</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>White matter disorders and cerebral calcification - narrow panel</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>476</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.201</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-30T14:39:53.379943Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:23:09.415619</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/476/?format=json</t>
         </is>
       </c>
     </row>
